--- a/dist/02_09012025.xlsx
+++ b/dist/02_09012025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\pyAlhambra\pyAlhambra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\pyAlhambra\pyAlhambra\dist\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB31022-A220-46BB-83CB-BA57E5FDAAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A516FC-983F-41A6-8FF0-9F3B9D0ED219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52716" yWindow="3852" windowWidth="14580" windowHeight="15576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38292" yWindow="3744" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="루밍" sheetId="9" r:id="rId1"/>
@@ -944,7 +944,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="65">
   <si>
     <t>PARK HAENG HWA</t>
   </si>
@@ -1136,6 +1136,9 @@
   </si>
   <si>
     <t>M561F5386</t>
+  </si>
+  <si>
+    <t>PARK HAENG HWAA</t>
   </si>
 </sst>
 </file>
@@ -2469,6 +2472,36 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="26" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2481,46 +2514,16 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="21" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="24" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="30" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="31" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="29" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="55" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="29" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="18" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="27" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="28" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="13" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="24" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="25" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="26" xfId="55" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3333,8 +3336,8 @@
   </sheetPr>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
@@ -3348,10 +3351,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1">
       <c r="A1" s="20"/>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="38"/>
       <c r="D1" s="6" t="s">
         <v>61</v>
       </c>
@@ -3360,10 +3363,10 @@
       <c r="A2" s="11">
         <v>1</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
@@ -3388,10 +3391,10 @@
       <c r="A4" s="11">
         <v>3</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="36" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4" t="s">
@@ -3402,10 +3405,10 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="40" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
@@ -3430,10 +3433,10 @@
       <c r="A7" s="11">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="10" t="s">
@@ -3444,10 +3447,10 @@
       <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="28" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="15" t="s">
@@ -3486,10 +3489,10 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="14" t="s">
@@ -3542,10 +3545,10 @@
       <c r="A15" s="12">
         <v>14</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -3556,10 +3559,10 @@
       <c r="A16" s="11">
         <v>15</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="26" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="10" t="s">
@@ -3584,10 +3587,10 @@
       <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="40" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="13" t="s">
@@ -3598,10 +3601,10 @@
       <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="28" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="9" t="s">
@@ -3612,10 +3615,10 @@
       <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9" t="s">
@@ -3626,10 +3629,10 @@
       <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="26" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="10" t="s">
@@ -3640,10 +3643,10 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="39" t="s">
+      <c r="B22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="28" t="s">
         <v>20</v>
       </c>
       <c r="D22" s="9" t="s">
@@ -3654,10 +3657,10 @@
       <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="10" t="s">
@@ -3668,10 +3671,10 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D24" s="9" t="s">
@@ -3730,10 +3733,10 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="36" t="s">
+      <c r="C29" s="42" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="8" t="s">
@@ -3744,10 +3747,10 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="38"/>
+      <c r="C30" s="34"/>
       <c r="D30" s="8" t="s">
         <v>46</v>
       </c>
@@ -3778,6 +3781,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B7:C7"/>
@@ -3794,22 +3813,6 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3822,6 +3825,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3b324d95-18ae-4ef0-925b-59110413f0ec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e2096bfe-5fc0-4a56-b376-f3fe333f10a2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AACF74560F292B47B82A3871817E2D25" ma:contentTypeVersion="15" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d4b479c4f4b7650ab9b946e6131775fa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e2096bfe-5fc0-4a56-b376-f3fe333f10a2" xmlns:ns3="3b324d95-18ae-4ef0-925b-59110413f0ec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e54b6fdc6756290e17702c083e78318a" ns2:_="" ns3:_="">
     <xsd:import namespace="e2096bfe-5fc0-4a56-b376-f3fe333f10a2"/>
@@ -4056,27 +4079,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4522C266-632E-4F05-B2E0-760837EFC1AA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3b324d95-18ae-4ef0-925b-59110413f0ec"/>
+    <ds:schemaRef ds:uri="e2096bfe-5fc0-4a56-b376-f3fe333f10a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3b324d95-18ae-4ef0-925b-59110413f0ec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e2096bfe-5fc0-4a56-b376-f3fe333f10a2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FB0FBE-C215-4B1C-9DFA-72CA9D79BEAB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57E44E31-CFED-448A-BE5F-F67D99CA38C4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4093,23 +4115,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02FB0FBE-C215-4B1C-9DFA-72CA9D79BEAB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4522C266-632E-4F05-B2E0-760837EFC1AA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3b324d95-18ae-4ef0-925b-59110413f0ec"/>
-    <ds:schemaRef ds:uri="e2096bfe-5fc0-4a56-b376-f3fe333f10a2"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>